--- a/src/assets/excel/Alonso_2023-7-20_INFORME.xlsx
+++ b/src/assets/excel/Alonso_2023-7-20_INFORME.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>DELEGACIÓN:</t>
   </si>
@@ -85,34 +85,25 @@
     <t>RESULTADO DE LA DILIGENCIA</t>
   </si>
   <si>
-    <t>E24-29095-10</t>
+    <t>E24-27487-10</t>
   </si>
   <si>
-    <t>232046065</t>
+    <t>232042681</t>
   </si>
   <si>
-    <t xml:space="preserve">2023/04 </t>
+    <t xml:space="preserve">2023/03 </t>
   </si>
   <si>
-    <t>$17022.47</t>
+    <t>$3509.81</t>
   </si>
   <si>
-    <t>123</t>
+    <t>1</t>
   </si>
   <si>
-    <t>236048856</t>
+    <t>238042681</t>
   </si>
   <si>
-    <t xml:space="preserve">2023/02 </t>
-  </si>
-  <si>
-    <t>$4049.29</t>
-  </si>
-  <si>
-    <t>238046065</t>
-  </si>
-  <si>
-    <t>$6808.98</t>
+    <t>$1403.92</t>
   </si>
   <si>
     <t>Recibí</t>
@@ -776,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L981"/>
+  <dimension ref="A1:L980"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A17" sqref="A17"/>
@@ -1041,7 +1032,7 @@
       <c r="K16" s="32"/>
       <c r="L16" s="33"/>
     </row>
-    <row r="17" ht="29.4" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" ht="29.4" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>23</v>
       </c>
@@ -1060,8 +1051,13 @@
       <c r="F17" s="39" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" ht="29.4" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+    </row>
+    <row r="18" ht="29.4" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>23</v>
       </c>
@@ -1069,10 +1065,10 @@
         <v>28</v>
       </c>
       <c r="C18" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>29</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>30</v>
       </c>
       <c r="E18" s="39" t="s">
         <v>27</v>
@@ -1080,39 +1076,39 @@
       <c r="F18" s="39" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" ht="29.4" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="39" t="s">
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+    </row>
+    <row r="19" ht="29.4" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="E20" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="39" t="s">
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
         <v>32</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" ht="29.4" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
-        <v>33</v>
       </c>
       <c r="B21" s="40"/>
       <c r="C21" s="40"/>
-      <c r="E21" s="40" t="s">
-        <v>34</v>
-      </c>
+      <c r="E21" s="40"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="40"/>
@@ -1121,13 +1117,15 @@
       <c r="K21" s="40"/>
       <c r="L21" s="40"/>
     </row>
-    <row r="22" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
-      <c r="E22" s="40"/>
+      <c r="E22" s="40" t="s">
+        <v>34</v>
+      </c>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
@@ -1137,38 +1135,22 @@
       <c r="L22" s="40"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="E23" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="C23" s="1"/>
+      <c r="I23" s="40" t="s">
+        <v>35</v>
+      </c>
       <c r="J23" s="40"/>
       <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="I24" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="41"/>
-    </row>
+      <c r="L23" s="41"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I29" s="42"/>
-    </row>
+    <row r="28" ht="15.75" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="42"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1177,9 +1159,9 @@
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1199,13 +1181,15 @@
     <row r="58" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="1"/>
+    </row>
     <row r="68" ht="15.75" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
     </row>
@@ -3945,11 +3929,8 @@
     <row r="980" ht="15.75" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C980" s="1"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C981" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="F10:K10"/>
     <mergeCell ref="A13:K13"/>
@@ -3959,13 +3940,15 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:K20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="E21:K21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="E22:K22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7086614173228347" right="0.27" top="0.3937007874015748" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="85" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
